--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Sema3g-Nrp2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Sema3g-Nrp2.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>13.486082</v>
+        <v>13.52879766666667</v>
       </c>
       <c r="H2">
-        <v>40.458246</v>
+        <v>40.586393</v>
       </c>
       <c r="I2">
-        <v>0.9315468716293712</v>
+        <v>0.8596824606989164</v>
       </c>
       <c r="J2">
-        <v>0.9315468716293713</v>
+        <v>0.8596824606989165</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>55.56529466666667</v>
+        <v>60.538204</v>
       </c>
       <c r="N2">
-        <v>166.695884</v>
+        <v>181.614612</v>
       </c>
       <c r="O2">
-        <v>0.424029640296873</v>
+        <v>0.6123615450168176</v>
       </c>
       <c r="P2">
-        <v>0.424029640296873</v>
+        <v>0.6123615450168176</v>
       </c>
       <c r="Q2">
-        <v>749.3581202288294</v>
+        <v>819.0091130193907</v>
       </c>
       <c r="R2">
-        <v>6744.223082059465</v>
+        <v>7371.082017174516</v>
       </c>
       <c r="S2">
-        <v>0.3950034848966796</v>
+        <v>0.526436479857448</v>
       </c>
       <c r="T2">
-        <v>0.3950034848966797</v>
+        <v>0.5264364798574481</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>13.486082</v>
+        <v>13.52879766666667</v>
       </c>
       <c r="H3">
-        <v>40.458246</v>
+        <v>40.586393</v>
       </c>
       <c r="I3">
-        <v>0.9315468716293712</v>
+        <v>0.8596824606989164</v>
       </c>
       <c r="J3">
-        <v>0.9315468716293713</v>
+        <v>0.8596824606989165</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>32.525452</v>
       </c>
       <c r="O3">
-        <v>0.08273603031526086</v>
+        <v>0.1096681363892149</v>
       </c>
       <c r="P3">
-        <v>0.08273603031526088</v>
+        <v>0.1096681363892149</v>
       </c>
       <c r="Q3">
-        <v>146.2136375863547</v>
+        <v>146.6767530416262</v>
       </c>
       <c r="R3">
-        <v>1315.922738277192</v>
+        <v>1320.090777374636</v>
       </c>
       <c r="S3">
-        <v>0.07707249021121408</v>
+        <v>0.09427977335134462</v>
       </c>
       <c r="T3">
-        <v>0.0770724902112141</v>
+        <v>0.09427977335134465</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>13.486082</v>
+        <v>13.52879766666667</v>
       </c>
       <c r="H4">
-        <v>40.458246</v>
+        <v>40.586393</v>
       </c>
       <c r="I4">
-        <v>0.9315468716293712</v>
+        <v>0.8596824606989164</v>
       </c>
       <c r="J4">
-        <v>0.9315468716293713</v>
+        <v>0.8596824606989165</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>40.13853466666666</v>
+        <v>8.850437666666666</v>
       </c>
       <c r="N4">
-        <v>120.415604</v>
+        <v>26.551313</v>
       </c>
       <c r="O4">
-        <v>0.3063050150071534</v>
+        <v>0.08952475173586316</v>
       </c>
       <c r="P4">
-        <v>0.3063050150071534</v>
+        <v>0.08952475173586316</v>
       </c>
       <c r="Q4">
-        <v>541.3115698745094</v>
+        <v>119.7357804537788</v>
       </c>
       <c r="R4">
-        <v>4871.804128870584</v>
+        <v>1077.622024084009</v>
       </c>
       <c r="S4">
-        <v>0.2853374784943014</v>
+        <v>0.07696285886574643</v>
       </c>
       <c r="T4">
-        <v>0.2853374784943014</v>
+        <v>0.07696285886574644</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>13.486082</v>
+        <v>13.52879766666667</v>
       </c>
       <c r="H5">
-        <v>40.458246</v>
+        <v>40.586393</v>
       </c>
       <c r="I5">
-        <v>0.9315468716293712</v>
+        <v>0.8596824606989164</v>
       </c>
       <c r="J5">
-        <v>0.9315468716293713</v>
+        <v>0.8596824606989165</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.607653333333333</v>
+        <v>1.757142</v>
       </c>
       <c r="N5">
-        <v>7.82296</v>
+        <v>5.271426</v>
       </c>
       <c r="O5">
-        <v>0.01989951302490964</v>
+        <v>0.01777400251143792</v>
       </c>
       <c r="P5">
-        <v>0.01989951302490964</v>
+        <v>0.01777400251143792</v>
       </c>
       <c r="Q5">
-        <v>35.16702668090667</v>
+        <v>23.772018589602</v>
       </c>
       <c r="R5">
-        <v>316.50324012816</v>
+        <v>213.948167306418</v>
       </c>
       <c r="S5">
-        <v>0.0185373291053025</v>
+        <v>0.01527999821550167</v>
       </c>
       <c r="T5">
-        <v>0.0185373291053025</v>
+        <v>0.01527999821550167</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>13.486082</v>
+        <v>13.52879766666667</v>
       </c>
       <c r="H6">
-        <v>40.458246</v>
+        <v>40.586393</v>
       </c>
       <c r="I6">
-        <v>0.9315468716293712</v>
+        <v>0.8596824606989164</v>
       </c>
       <c r="J6">
-        <v>0.9315468716293713</v>
+        <v>0.8596824606989165</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>21.88776266666666</v>
+        <v>16.87263033333333</v>
       </c>
       <c r="N6">
-        <v>65.66328799999999</v>
+        <v>50.617891</v>
       </c>
       <c r="O6">
-        <v>0.167029801355803</v>
+        <v>0.1706715643466665</v>
       </c>
       <c r="P6">
-        <v>0.167029801355803</v>
+        <v>0.1706715643466665</v>
       </c>
       <c r="Q6">
-        <v>295.1801621192053</v>
+        <v>228.2664018841292</v>
       </c>
       <c r="R6">
-        <v>2656.621459072848</v>
+        <v>2054.397616957163</v>
       </c>
       <c r="S6">
-        <v>0.1555960889218736</v>
+        <v>0.1467233504088757</v>
       </c>
       <c r="T6">
-        <v>0.1555960889218736</v>
+        <v>0.1467233504088757</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>0.414168</v>
       </c>
       <c r="I7">
-        <v>0.009536174769637648</v>
+        <v>0.008772717629348061</v>
       </c>
       <c r="J7">
-        <v>0.009536174769637652</v>
+        <v>0.008772717629348063</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>55.56529466666667</v>
+        <v>60.538204</v>
       </c>
       <c r="N7">
-        <v>166.695884</v>
+        <v>181.614612</v>
       </c>
       <c r="O7">
-        <v>0.424029640296873</v>
+        <v>0.6123615450168176</v>
       </c>
       <c r="P7">
-        <v>0.424029640296873</v>
+        <v>0.6123615450168176</v>
       </c>
       <c r="Q7">
-        <v>7.671122320501333</v>
+        <v>8.357662291423999</v>
       </c>
       <c r="R7">
-        <v>69.040100884512</v>
+        <v>75.218960622816</v>
       </c>
       <c r="S7">
-        <v>0.004043620757377568</v>
+        <v>0.005372074921503852</v>
       </c>
       <c r="T7">
-        <v>0.004043620757377569</v>
+        <v>0.005372074921503853</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>0.414168</v>
       </c>
       <c r="I8">
-        <v>0.009536174769637648</v>
+        <v>0.008772717629348061</v>
       </c>
       <c r="J8">
-        <v>0.009536174769637652</v>
+        <v>0.008772717629348063</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>32.525452</v>
       </c>
       <c r="O8">
-        <v>0.08273603031526086</v>
+        <v>0.1096681363892149</v>
       </c>
       <c r="P8">
-        <v>0.08273603031526088</v>
+        <v>0.1096681363892149</v>
       </c>
       <c r="Q8">
         <v>1.496777933770666</v>
@@ -948,10 +948,10 @@
         <v>13.471001403936</v>
       </c>
       <c r="S8">
-        <v>0.0007889852448323663</v>
+        <v>0.0009620875934794129</v>
       </c>
       <c r="T8">
-        <v>0.0007889852448323667</v>
+        <v>0.0009620875934794132</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>0.414168</v>
       </c>
       <c r="I9">
-        <v>0.009536174769637648</v>
+        <v>0.008772717629348061</v>
       </c>
       <c r="J9">
-        <v>0.009536174769637652</v>
+        <v>0.008772717629348063</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>40.13853466666666</v>
+        <v>8.850437666666666</v>
       </c>
       <c r="N9">
-        <v>120.415604</v>
+        <v>26.551313</v>
       </c>
       <c r="O9">
-        <v>0.3063050150071534</v>
+        <v>0.08952475173586316</v>
       </c>
       <c r="P9">
-        <v>0.3063050150071534</v>
+        <v>0.08952475173586316</v>
       </c>
       <c r="Q9">
-        <v>5.541365541941333</v>
+        <v>1.221856022509333</v>
       </c>
       <c r="R9">
-        <v>49.872289877472</v>
+        <v>10.996704202584</v>
       </c>
       <c r="S9">
-        <v>0.002920978155924697</v>
+        <v>0.0007853753678162151</v>
       </c>
       <c r="T9">
-        <v>0.002920978155924699</v>
+        <v>0.0007853753678162154</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>0.414168</v>
       </c>
       <c r="I10">
-        <v>0.009536174769637648</v>
+        <v>0.008772717629348061</v>
       </c>
       <c r="J10">
-        <v>0.009536174769637652</v>
+        <v>0.008772717629348063</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.607653333333333</v>
+        <v>1.757142</v>
       </c>
       <c r="N10">
-        <v>7.82296</v>
+        <v>5.271426</v>
       </c>
       <c r="O10">
-        <v>0.01989951302490964</v>
+        <v>0.01777400251143792</v>
       </c>
       <c r="P10">
-        <v>0.01989951302490964</v>
+        <v>0.01777400251143792</v>
       </c>
       <c r="Q10">
-        <v>0.3600021885866666</v>
+        <v>0.242583995952</v>
       </c>
       <c r="R10">
-        <v>3.24001969728</v>
+        <v>2.183255963568</v>
       </c>
       <c r="S10">
-        <v>0.0001897652340362191</v>
+        <v>0.0001559263051761681</v>
       </c>
       <c r="T10">
-        <v>0.0001897652340362191</v>
+        <v>0.0001559263051761682</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>0.414168</v>
       </c>
       <c r="I11">
-        <v>0.009536174769637648</v>
+        <v>0.008772717629348061</v>
       </c>
       <c r="J11">
-        <v>0.009536174769637652</v>
+        <v>0.008772717629348063</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>21.88776266666666</v>
+        <v>16.87263033333333</v>
       </c>
       <c r="N11">
-        <v>65.66328799999999</v>
+        <v>50.617891</v>
       </c>
       <c r="O11">
-        <v>0.167029801355803</v>
+        <v>0.1706715643466665</v>
       </c>
       <c r="P11">
-        <v>0.167029801355803</v>
+        <v>0.1706715643466665</v>
       </c>
       <c r="Q11">
-        <v>3.021736962709332</v>
+        <v>2.329367853298666</v>
       </c>
       <c r="R11">
-        <v>27.195632664384</v>
+        <v>20.964310679688</v>
       </c>
       <c r="S11">
-        <v>0.001592825377466797</v>
+        <v>0.001497253441372413</v>
       </c>
       <c r="T11">
-        <v>0.001592825377466797</v>
+        <v>0.001497253441372413</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.01226766666666666</v>
+        <v>0.05669233333333334</v>
       </c>
       <c r="H12">
-        <v>0.036803</v>
+        <v>0.170077</v>
       </c>
       <c r="I12">
-        <v>0.0008473852157746962</v>
+        <v>0.003602493423554283</v>
       </c>
       <c r="J12">
-        <v>0.0008473852157746964</v>
+        <v>0.003602493423554284</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>55.56529466666667</v>
+        <v>60.538204</v>
       </c>
       <c r="N12">
-        <v>166.695884</v>
+        <v>181.614612</v>
       </c>
       <c r="O12">
-        <v>0.424029640296873</v>
+        <v>0.6123615450168176</v>
       </c>
       <c r="P12">
-        <v>0.424029640296873</v>
+        <v>0.6123615450168176</v>
       </c>
       <c r="Q12">
-        <v>0.6816565132057777</v>
+        <v>3.432052040569334</v>
       </c>
       <c r="R12">
-        <v>6.134908618851999</v>
+        <v>30.888468365124</v>
       </c>
       <c r="S12">
-        <v>0.0003593164482378325</v>
+        <v>0.002206028438760626</v>
       </c>
       <c r="T12">
-        <v>0.0003593164482378326</v>
+        <v>0.002206028438760626</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.01226766666666666</v>
+        <v>0.05669233333333334</v>
       </c>
       <c r="H13">
-        <v>0.036803</v>
+        <v>0.170077</v>
       </c>
       <c r="I13">
-        <v>0.0008473852157746962</v>
+        <v>0.003602493423554283</v>
       </c>
       <c r="J13">
-        <v>0.0008473852157746964</v>
+        <v>0.003602493423554284</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>32.525452</v>
       </c>
       <c r="O13">
-        <v>0.08273603031526086</v>
+        <v>0.1096681363892149</v>
       </c>
       <c r="P13">
-        <v>0.08273603031526088</v>
+        <v>0.1096681363892149</v>
       </c>
       <c r="Q13">
-        <v>0.1330038011062222</v>
+        <v>0.6146479222004445</v>
       </c>
       <c r="R13">
-        <v>1.197034209956</v>
+        <v>5.531831299804001</v>
       </c>
       <c r="S13">
-        <v>7.010928890103912E-05</v>
+        <v>0.0003950787401156007</v>
       </c>
       <c r="T13">
-        <v>7.010928890103916E-05</v>
+        <v>0.0003950787401156009</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.01226766666666666</v>
+        <v>0.05669233333333334</v>
       </c>
       <c r="H14">
-        <v>0.036803</v>
+        <v>0.170077</v>
       </c>
       <c r="I14">
-        <v>0.0008473852157746962</v>
+        <v>0.003602493423554283</v>
       </c>
       <c r="J14">
-        <v>0.0008473852157746964</v>
+        <v>0.003602493423554284</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>40.13853466666666</v>
+        <v>8.850437666666666</v>
       </c>
       <c r="N14">
-        <v>120.415604</v>
+        <v>26.551313</v>
       </c>
       <c r="O14">
-        <v>0.3063050150071534</v>
+        <v>0.08952475173586316</v>
       </c>
       <c r="P14">
-        <v>0.3063050150071534</v>
+        <v>0.08952475173586316</v>
       </c>
       <c r="Q14">
-        <v>0.492406163779111</v>
+        <v>0.5017519623445555</v>
       </c>
       <c r="R14">
-        <v>4.431655474012</v>
+        <v>4.515767661101</v>
       </c>
       <c r="S14">
-        <v>0.0002595583412347083</v>
+        <v>0.000322512329373777</v>
       </c>
       <c r="T14">
-        <v>0.0002595583412347083</v>
+        <v>0.000322512329373777</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.01226766666666666</v>
+        <v>0.05669233333333334</v>
       </c>
       <c r="H15">
-        <v>0.036803</v>
+        <v>0.170077</v>
       </c>
       <c r="I15">
-        <v>0.0008473852157746962</v>
+        <v>0.003602493423554283</v>
       </c>
       <c r="J15">
-        <v>0.0008473852157746964</v>
+        <v>0.003602493423554284</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>2.607653333333333</v>
+        <v>1.757142</v>
       </c>
       <c r="N15">
-        <v>7.82296</v>
+        <v>5.271426</v>
       </c>
       <c r="O15">
-        <v>0.01989951302490964</v>
+        <v>0.01777400251143792</v>
       </c>
       <c r="P15">
-        <v>0.01989951302490964</v>
+        <v>0.01777400251143792</v>
       </c>
       <c r="Q15">
-        <v>0.03198982187555555</v>
+        <v>0.09961647997800001</v>
       </c>
       <c r="R15">
-        <v>0.28790839688</v>
+        <v>0.896548319802</v>
       </c>
       <c r="S15">
-        <v>1.686255313842443E-05</v>
+        <v>6.403072715769241E-05</v>
       </c>
       <c r="T15">
-        <v>1.686255313842443E-05</v>
+        <v>6.403072715769243E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.01226766666666666</v>
+        <v>0.05669233333333334</v>
       </c>
       <c r="H16">
-        <v>0.036803</v>
+        <v>0.170077</v>
       </c>
       <c r="I16">
-        <v>0.0008473852157746962</v>
+        <v>0.003602493423554283</v>
       </c>
       <c r="J16">
-        <v>0.0008473852157746964</v>
+        <v>0.003602493423554284</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>21.88776266666666</v>
+        <v>16.87263033333333</v>
       </c>
       <c r="N16">
-        <v>65.66328799999999</v>
+        <v>50.617891</v>
       </c>
       <c r="O16">
-        <v>0.167029801355803</v>
+        <v>0.1706715643466665</v>
       </c>
       <c r="P16">
-        <v>0.167029801355803</v>
+        <v>0.1706715643466665</v>
       </c>
       <c r="Q16">
-        <v>0.2685117764737777</v>
+        <v>0.9565487830674445</v>
       </c>
       <c r="R16">
-        <v>2.416605988264</v>
+        <v>8.608939047607</v>
       </c>
       <c r="S16">
-        <v>0.0001415385842626917</v>
+        <v>0.0006148431881465876</v>
       </c>
       <c r="T16">
-        <v>0.0001415385842626918</v>
+        <v>0.0006148431881465878</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,22 +1464,22 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.840678</v>
+        <v>2.013424666666667</v>
       </c>
       <c r="H17">
-        <v>2.522034</v>
+        <v>6.040274</v>
       </c>
       <c r="I17">
-        <v>0.05806956838521644</v>
+        <v>0.1279423282481813</v>
       </c>
       <c r="J17">
-        <v>0.05806956838521645</v>
+        <v>0.1279423282481813</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>55.56529466666667</v>
+        <v>60.538204</v>
       </c>
       <c r="N17">
-        <v>166.695884</v>
+        <v>181.614612</v>
       </c>
       <c r="O17">
-        <v>0.424029640296873</v>
+        <v>0.6123615450168176</v>
       </c>
       <c r="P17">
-        <v>0.424029640296873</v>
+        <v>0.6123615450168176</v>
       </c>
       <c r="Q17">
-        <v>46.712520789784</v>
+        <v>121.8891132092987</v>
       </c>
       <c r="R17">
-        <v>420.412687108056</v>
+        <v>1097.002018883688</v>
       </c>
       <c r="S17">
-        <v>0.02462321819457799</v>
+        <v>0.07834696179910511</v>
       </c>
       <c r="T17">
-        <v>0.024623218194578</v>
+        <v>0.07834696179910514</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,22 +1526,22 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F18">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.840678</v>
+        <v>2.013424666666667</v>
       </c>
       <c r="H18">
-        <v>2.522034</v>
+        <v>6.040274</v>
       </c>
       <c r="I18">
-        <v>0.05806956838521644</v>
+        <v>0.1279423282481813</v>
       </c>
       <c r="J18">
-        <v>0.05806956838521645</v>
+        <v>0.1279423282481813</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>32.525452</v>
       </c>
       <c r="O18">
-        <v>0.08273603031526086</v>
+        <v>0.1096681363892149</v>
       </c>
       <c r="P18">
-        <v>0.08273603031526088</v>
+        <v>0.1096681363892149</v>
       </c>
       <c r="Q18">
-        <v>9.114477312152001</v>
+        <v>21.82918245042756</v>
       </c>
       <c r="R18">
-        <v>82.03029580936801</v>
+        <v>196.462642053848</v>
       </c>
       <c r="S18">
-        <v>0.004804445570313381</v>
+        <v>0.01403119670427524</v>
       </c>
       <c r="T18">
-        <v>0.004804445570313383</v>
+        <v>0.01403119670427525</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,22 +1588,22 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0.840678</v>
+        <v>2.013424666666667</v>
       </c>
       <c r="H19">
-        <v>2.522034</v>
+        <v>6.040274</v>
       </c>
       <c r="I19">
-        <v>0.05806956838521644</v>
+        <v>0.1279423282481813</v>
       </c>
       <c r="J19">
-        <v>0.05806956838521645</v>
+        <v>0.1279423282481813</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>40.13853466666666</v>
+        <v>8.850437666666666</v>
       </c>
       <c r="N19">
-        <v>120.415604</v>
+        <v>26.551313</v>
       </c>
       <c r="O19">
-        <v>0.3063050150071534</v>
+        <v>0.08952475173586316</v>
       </c>
       <c r="P19">
-        <v>0.3063050150071534</v>
+        <v>0.08952475173586316</v>
       </c>
       <c r="Q19">
-        <v>33.743583046504</v>
+        <v>17.81968950886245</v>
       </c>
       <c r="R19">
-        <v>303.692247418536</v>
+        <v>160.377205579762</v>
       </c>
       <c r="S19">
-        <v>0.01778700001569264</v>
+        <v>0.01145400517292674</v>
       </c>
       <c r="T19">
-        <v>0.01778700001569265</v>
+        <v>0.01145400517292674</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,22 +1650,22 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F20">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>0.840678</v>
+        <v>2.013424666666667</v>
       </c>
       <c r="H20">
-        <v>2.522034</v>
+        <v>6.040274</v>
       </c>
       <c r="I20">
-        <v>0.05806956838521644</v>
+        <v>0.1279423282481813</v>
       </c>
       <c r="J20">
-        <v>0.05806956838521645</v>
+        <v>0.1279423282481813</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>2.607653333333333</v>
+        <v>1.757142</v>
       </c>
       <c r="N20">
-        <v>7.82296</v>
+        <v>5.271426</v>
       </c>
       <c r="O20">
-        <v>0.01989951302490964</v>
+        <v>0.01777400251143792</v>
       </c>
       <c r="P20">
-        <v>0.01989951302490964</v>
+        <v>0.01777400251143792</v>
       </c>
       <c r="Q20">
-        <v>2.19219678896</v>
+        <v>3.537873045636</v>
       </c>
       <c r="R20">
-        <v>19.72977110064</v>
+        <v>31.840857410724</v>
       </c>
       <c r="S20">
-        <v>0.001155556132432495</v>
+        <v>0.002274047263602388</v>
       </c>
       <c r="T20">
-        <v>0.001155556132432496</v>
+        <v>0.002274047263602389</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,22 +1712,22 @@
         <v>26</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F21">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G21">
-        <v>0.840678</v>
+        <v>2.013424666666667</v>
       </c>
       <c r="H21">
-        <v>2.522034</v>
+        <v>6.040274</v>
       </c>
       <c r="I21">
-        <v>0.05806956838521644</v>
+        <v>0.1279423282481813</v>
       </c>
       <c r="J21">
-        <v>0.05806956838521645</v>
+        <v>0.1279423282481813</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>21.88776266666666</v>
+        <v>16.87263033333333</v>
       </c>
       <c r="N21">
-        <v>65.66328799999999</v>
+        <v>50.617891</v>
       </c>
       <c r="O21">
-        <v>0.167029801355803</v>
+        <v>0.1706715643466665</v>
       </c>
       <c r="P21">
-        <v>0.167029801355803</v>
+        <v>0.1706715643466665</v>
       </c>
       <c r="Q21">
-        <v>18.400560543088</v>
+        <v>33.97177010468156</v>
       </c>
       <c r="R21">
-        <v>165.605044887792</v>
+        <v>305.745930942134</v>
       </c>
       <c r="S21">
-        <v>0.009699348472199918</v>
+        <v>0.02183611730827179</v>
       </c>
       <c r="T21">
-        <v>0.00969934847219992</v>
+        <v>0.0218361173082718</v>
       </c>
     </row>
   </sheetData>
